--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.053021666666666</v>
+        <v>1.101236</v>
       </c>
       <c r="H2">
-        <v>21.159065</v>
+        <v>3.303708</v>
       </c>
       <c r="I2">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="J2">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1497613333333333</v>
+        <v>0.1695033333333333</v>
       </c>
       <c r="N2">
-        <v>0.449284</v>
+        <v>0.50851</v>
       </c>
       <c r="O2">
-        <v>0.002040697341788271</v>
+        <v>0.001866366239361986</v>
       </c>
       <c r="P2">
-        <v>0.002040697341788271</v>
+        <v>0.001866366239361986</v>
       </c>
       <c r="Q2">
-        <v>1.056269928828889</v>
+        <v>0.1866631727866667</v>
       </c>
       <c r="R2">
-        <v>9.50642935946</v>
+        <v>1.67996855508</v>
       </c>
       <c r="S2">
-        <v>0.0001634825569410627</v>
+        <v>3.162105768562215E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001634825569410627</v>
+        <v>3.162105768562216E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.053021666666666</v>
+        <v>1.101236</v>
       </c>
       <c r="H3">
-        <v>21.159065</v>
+        <v>3.303708</v>
       </c>
       <c r="I3">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="J3">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.225204666666667</v>
+        <v>0.1497613333333333</v>
       </c>
       <c r="N3">
-        <v>6.675614</v>
+        <v>0.449284</v>
       </c>
       <c r="O3">
-        <v>0.03032137299481969</v>
+        <v>0.001648991149604748</v>
       </c>
       <c r="P3">
-        <v>0.03032137299481969</v>
+        <v>0.001648991149604748</v>
       </c>
       <c r="Q3">
-        <v>15.69441672676778</v>
+        <v>0.1649225716746666</v>
       </c>
       <c r="R3">
-        <v>141.24975054091</v>
+        <v>1.484303145072</v>
       </c>
       <c r="S3">
-        <v>0.002429079259158028</v>
+        <v>2.793816302772229E-05</v>
       </c>
       <c r="T3">
-        <v>0.002429079259158027</v>
+        <v>2.79381630277223E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.053021666666666</v>
+        <v>1.101236</v>
       </c>
       <c r="H4">
-        <v>21.159065</v>
+        <v>3.303708</v>
       </c>
       <c r="I4">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="J4">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7441686666666666</v>
+        <v>5.274881666666666</v>
       </c>
       <c r="N4">
-        <v>2.232506</v>
+        <v>15.824645</v>
       </c>
       <c r="O4">
-        <v>0.01014028779063213</v>
+        <v>0.05808063396568101</v>
       </c>
       <c r="P4">
-        <v>0.01014028779063213</v>
+        <v>0.05808063396568101</v>
       </c>
       <c r="Q4">
-        <v>5.248637729654443</v>
+        <v>5.808889587073333</v>
       </c>
       <c r="R4">
-        <v>47.23773956688999</v>
+        <v>52.28000628366</v>
       </c>
       <c r="S4">
-        <v>0.0008123498483504065</v>
+        <v>0.0009840357365626874</v>
       </c>
       <c r="T4">
-        <v>0.0008123498483504065</v>
+        <v>0.0009840357365626874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.053021666666666</v>
+        <v>1.101236</v>
       </c>
       <c r="H5">
-        <v>21.159065</v>
+        <v>3.303708</v>
       </c>
       <c r="I5">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="J5">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.90343433333334</v>
+        <v>2.014966666666667</v>
       </c>
       <c r="N5">
-        <v>206.710303</v>
+        <v>6.0449</v>
       </c>
       <c r="O5">
-        <v>0.938900930930877</v>
+        <v>0.02218638233332534</v>
       </c>
       <c r="P5">
-        <v>0.9389009309308769</v>
+        <v>0.02218638233332534</v>
       </c>
       <c r="Q5">
-        <v>485.9774152607439</v>
+        <v>2.218953832133333</v>
       </c>
       <c r="R5">
-        <v>4373.796737346694</v>
+        <v>19.9705844892</v>
       </c>
       <c r="S5">
-        <v>0.07521640850887595</v>
+        <v>0.000375894538168015</v>
       </c>
       <c r="T5">
-        <v>0.07521640850887594</v>
+        <v>0.0003758945381680152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.053021666666666</v>
+        <v>1.101236</v>
       </c>
       <c r="H6">
-        <v>21.159065</v>
+        <v>3.303708</v>
       </c>
       <c r="I6">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="J6">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,60 +809,60 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.364763</v>
+        <v>82.60812866666667</v>
       </c>
       <c r="N6">
-        <v>4.094289</v>
+        <v>247.824386</v>
       </c>
       <c r="O6">
-        <v>0.01859671094188299</v>
+        <v>0.9095810649171368</v>
       </c>
       <c r="P6">
-        <v>0.01859671094188299</v>
+        <v>0.9095810649171366</v>
       </c>
       <c r="Q6">
-        <v>9.625703008864999</v>
+        <v>90.97104518036534</v>
       </c>
       <c r="R6">
-        <v>86.631327079785</v>
+        <v>818.739406623288</v>
       </c>
       <c r="S6">
-        <v>0.001489803408480308</v>
+        <v>0.01541064916247447</v>
       </c>
       <c r="T6">
-        <v>0.001489803408480307</v>
+        <v>0.01541064916247447</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>35.63076933333333</v>
+        <v>1.101236</v>
       </c>
       <c r="H7">
-        <v>106.892308</v>
+        <v>3.303708</v>
       </c>
       <c r="I7">
-        <v>0.4047089460773642</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="J7">
-        <v>0.4047089460773642</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1497613333333333</v>
+        <v>0.6027323333333333</v>
       </c>
       <c r="N7">
-        <v>0.449284</v>
+        <v>1.808197</v>
       </c>
       <c r="O7">
-        <v>0.002040697341788271</v>
+        <v>0.006636561394890218</v>
       </c>
       <c r="P7">
-        <v>0.002040697341788271</v>
+        <v>0.006636561394890218</v>
       </c>
       <c r="Q7">
-        <v>5.336111523052445</v>
+        <v>0.6637505438306666</v>
       </c>
       <c r="R7">
-        <v>48.025003707472</v>
+        <v>5.973754894475999</v>
       </c>
       <c r="S7">
-        <v>0.0008258884704580098</v>
+        <v>0.0001124404665473027</v>
       </c>
       <c r="T7">
-        <v>0.0008258884704580098</v>
+        <v>0.0001124404665473028</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.63076933333333</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H8">
-        <v>106.892308</v>
+        <v>21.159065</v>
       </c>
       <c r="I8">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="J8">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.225204666666667</v>
+        <v>0.1695033333333333</v>
       </c>
       <c r="N8">
-        <v>6.675614</v>
+        <v>0.50851</v>
       </c>
       <c r="O8">
-        <v>0.03032137299481969</v>
+        <v>0.001866366239361986</v>
       </c>
       <c r="P8">
-        <v>0.03032137299481969</v>
+        <v>0.001866366239361986</v>
       </c>
       <c r="Q8">
-        <v>79.2857541974569</v>
+        <v>1.195510682572222</v>
       </c>
       <c r="R8">
-        <v>713.571787777112</v>
+        <v>10.75959614315</v>
       </c>
       <c r="S8">
-        <v>0.01227133090835213</v>
+        <v>0.0002025215348750037</v>
       </c>
       <c r="T8">
-        <v>0.01227133090835213</v>
+        <v>0.0002025215348750037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.63076933333333</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H9">
-        <v>106.892308</v>
+        <v>21.159065</v>
       </c>
       <c r="I9">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="J9">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7441686666666666</v>
+        <v>0.1497613333333333</v>
       </c>
       <c r="N9">
-        <v>2.232506</v>
+        <v>0.449284</v>
       </c>
       <c r="O9">
-        <v>0.01014028779063213</v>
+        <v>0.001648991149604748</v>
       </c>
       <c r="P9">
-        <v>0.01014028779063213</v>
+        <v>0.001648991149604748</v>
       </c>
       <c r="Q9">
-        <v>26.51530210709422</v>
+        <v>1.056269928828889</v>
       </c>
       <c r="R9">
-        <v>238.637718963848</v>
+        <v>9.50642935946</v>
       </c>
       <c r="S9">
-        <v>0.004103865184667893</v>
+        <v>0.0001789339153109696</v>
       </c>
       <c r="T9">
-        <v>0.004103865184667893</v>
+        <v>0.0001789339153109696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.63076933333333</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H10">
-        <v>106.892308</v>
+        <v>21.159065</v>
       </c>
       <c r="I10">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="J10">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.90343433333334</v>
+        <v>5.274881666666666</v>
       </c>
       <c r="N10">
-        <v>206.710303</v>
+        <v>15.824645</v>
       </c>
       <c r="O10">
-        <v>0.938900930930877</v>
+        <v>0.05808063396568101</v>
       </c>
       <c r="P10">
-        <v>0.9389009309308769</v>
+        <v>0.05808063396568101</v>
       </c>
       <c r="Q10">
-        <v>2455.082375005481</v>
+        <v>37.20385468410277</v>
       </c>
       <c r="R10">
-        <v>22095.74137504933</v>
+        <v>334.834692156925</v>
       </c>
       <c r="S10">
-        <v>0.3799816062280914</v>
+        <v>0.006302396008440449</v>
       </c>
       <c r="T10">
-        <v>0.3799816062280913</v>
+        <v>0.006302396008440449</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.63076933333333</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H11">
-        <v>106.892308</v>
+        <v>21.159065</v>
       </c>
       <c r="I11">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="J11">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,42 +1119,42 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.364763</v>
+        <v>2.014966666666667</v>
       </c>
       <c r="N11">
-        <v>4.094289</v>
+        <v>6.0449</v>
       </c>
       <c r="O11">
-        <v>0.01859671094188299</v>
+        <v>0.02218638233332534</v>
       </c>
       <c r="P11">
-        <v>0.01859671094188299</v>
+        <v>0.02218638233332534</v>
       </c>
       <c r="Q11">
-        <v>48.627555647668</v>
+        <v>14.21160355761111</v>
       </c>
       <c r="R11">
-        <v>437.648000829012</v>
+        <v>127.9044320185</v>
       </c>
       <c r="S11">
-        <v>0.007526255285794853</v>
+        <v>0.002407469717735953</v>
       </c>
       <c r="T11">
-        <v>0.007526255285794852</v>
+        <v>0.002407469717735954</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.661325</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H12">
-        <v>10.983975</v>
+        <v>21.159065</v>
       </c>
       <c r="I12">
-        <v>0.04158683659436108</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="J12">
-        <v>0.04158683659436108</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,43 +1181,43 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1497613333333333</v>
+        <v>82.60812866666667</v>
       </c>
       <c r="N12">
-        <v>0.449284</v>
+        <v>247.824386</v>
       </c>
       <c r="O12">
-        <v>0.002040697341788271</v>
+        <v>0.9095810649171368</v>
       </c>
       <c r="P12">
-        <v>0.002040697341788271</v>
+        <v>0.9095810649171366</v>
       </c>
       <c r="Q12">
-        <v>0.5483249137666666</v>
+        <v>582.6369213287878</v>
       </c>
       <c r="R12">
-        <v>4.9349242239</v>
+        <v>5243.73229195909</v>
       </c>
       <c r="S12">
-        <v>8.486614689149586E-05</v>
+        <v>0.09869968148546809</v>
       </c>
       <c r="T12">
-        <v>8.486614689149586E-05</v>
+        <v>0.09869968148546808</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1222,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.661325</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H13">
-        <v>10.983975</v>
+        <v>21.159065</v>
       </c>
       <c r="I13">
-        <v>0.04158683659436108</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="J13">
-        <v>0.04158683659436108</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.225204666666667</v>
+        <v>0.6027323333333333</v>
       </c>
       <c r="N13">
-        <v>6.675614</v>
+        <v>1.808197</v>
       </c>
       <c r="O13">
-        <v>0.03032137299481969</v>
+        <v>0.006636561394890218</v>
       </c>
       <c r="P13">
-        <v>0.03032137299481969</v>
+        <v>0.006636561394890218</v>
       </c>
       <c r="Q13">
-        <v>8.147197476183333</v>
+        <v>4.251084206200555</v>
       </c>
       <c r="R13">
-        <v>73.32477728565</v>
+        <v>38.259757855805</v>
       </c>
       <c r="S13">
-        <v>0.001260969984052239</v>
+        <v>0.0007201408660525399</v>
       </c>
       <c r="T13">
-        <v>0.001260969984052239</v>
+        <v>0.0007201408660525399</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.661325</v>
+        <v>37.05201233333333</v>
       </c>
       <c r="H14">
-        <v>10.983975</v>
+        <v>111.156037</v>
       </c>
       <c r="I14">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="J14">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.7441686666666666</v>
+        <v>0.1695033333333333</v>
       </c>
       <c r="N14">
-        <v>2.232506</v>
+        <v>0.50851</v>
       </c>
       <c r="O14">
-        <v>0.01014028779063213</v>
+        <v>0.001866366239361986</v>
       </c>
       <c r="P14">
-        <v>0.01014028779063213</v>
+        <v>0.001866366239361986</v>
       </c>
       <c r="Q14">
-        <v>2.724643343483333</v>
+        <v>6.280439597207778</v>
       </c>
       <c r="R14">
-        <v>24.52179009135</v>
+        <v>56.52395637487</v>
       </c>
       <c r="S14">
-        <v>0.0004217024913688131</v>
+        <v>0.001063917107105758</v>
       </c>
       <c r="T14">
-        <v>0.0004217024913688131</v>
+        <v>0.001063917107105758</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.661325</v>
+        <v>37.05201233333333</v>
       </c>
       <c r="H15">
-        <v>10.983975</v>
+        <v>111.156037</v>
       </c>
       <c r="I15">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="J15">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.90343433333334</v>
+        <v>0.1497613333333333</v>
       </c>
       <c r="N15">
-        <v>206.710303</v>
+        <v>0.449284</v>
       </c>
       <c r="O15">
-        <v>0.938900930930877</v>
+        <v>0.001648991149604748</v>
       </c>
       <c r="P15">
-        <v>0.9389009309308769</v>
+        <v>0.001648991149604748</v>
       </c>
       <c r="Q15">
-        <v>252.2778667104917</v>
+        <v>5.548958769723111</v>
       </c>
       <c r="R15">
-        <v>2270.500800394425</v>
+        <v>49.940628927508</v>
       </c>
       <c r="S15">
-        <v>0.03904591959291588</v>
+        <v>0.0009400030157694116</v>
       </c>
       <c r="T15">
-        <v>0.03904591959291588</v>
+        <v>0.0009400030157694116</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.661325</v>
+        <v>37.05201233333333</v>
       </c>
       <c r="H16">
-        <v>10.983975</v>
+        <v>111.156037</v>
       </c>
       <c r="I16">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="J16">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,43 +1429,43 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.364763</v>
+        <v>5.274881666666666</v>
       </c>
       <c r="N16">
-        <v>4.094289</v>
+        <v>15.824645</v>
       </c>
       <c r="O16">
-        <v>0.01859671094188299</v>
+        <v>0.05808063396568101</v>
       </c>
       <c r="P16">
-        <v>0.01859671094188299</v>
+        <v>0.05808063396568101</v>
       </c>
       <c r="Q16">
-        <v>4.996840890974999</v>
+        <v>195.4449805702072</v>
       </c>
       <c r="R16">
-        <v>44.971568018775</v>
+        <v>1759.004825131865</v>
       </c>
       <c r="S16">
-        <v>0.0007733783791326549</v>
+        <v>0.03310871080091955</v>
       </c>
       <c r="T16">
-        <v>0.0007733783791326548</v>
+        <v>0.03310871080091955</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1470,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.048222000000001</v>
+        <v>37.05201233333333</v>
       </c>
       <c r="H17">
-        <v>24.144666</v>
+        <v>111.156037</v>
       </c>
       <c r="I17">
-        <v>0.09141501865831141</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="J17">
-        <v>0.09141501865831139</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,42 +1491,42 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1497613333333333</v>
+        <v>2.014966666666667</v>
       </c>
       <c r="N17">
-        <v>0.449284</v>
+        <v>6.0449</v>
       </c>
       <c r="O17">
-        <v>0.002040697341788271</v>
+        <v>0.02218638233332534</v>
       </c>
       <c r="P17">
-        <v>0.002040697341788271</v>
+        <v>0.02218638233332534</v>
       </c>
       <c r="Q17">
-        <v>1.205312457682667</v>
+        <v>74.65856978458888</v>
       </c>
       <c r="R17">
-        <v>10.847812119144</v>
+        <v>671.9271280613</v>
       </c>
       <c r="S17">
-        <v>0.0001865503855755413</v>
+        <v>0.01264728819638473</v>
       </c>
       <c r="T17">
-        <v>0.0001865503855755413</v>
+        <v>0.01264728819638473</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.048222000000001</v>
+        <v>37.05201233333333</v>
       </c>
       <c r="H18">
-        <v>24.144666</v>
+        <v>111.156037</v>
       </c>
       <c r="I18">
-        <v>0.09141501865831141</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="J18">
-        <v>0.09141501865831139</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,43 +1553,43 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.225204666666667</v>
+        <v>82.60812866666667</v>
       </c>
       <c r="N18">
-        <v>6.675614</v>
+        <v>247.824386</v>
       </c>
       <c r="O18">
-        <v>0.03032137299481969</v>
+        <v>0.9095810649171368</v>
       </c>
       <c r="P18">
-        <v>0.03032137299481969</v>
+        <v>0.9095810649171366</v>
       </c>
       <c r="Q18">
-        <v>17.90894115276934</v>
+        <v>3060.79740219092</v>
       </c>
       <c r="R18">
-        <v>161.180470374924</v>
+        <v>27547.17661971828</v>
       </c>
       <c r="S18">
-        <v>0.002771828878067062</v>
+        <v>0.5185042650555167</v>
       </c>
       <c r="T18">
-        <v>0.002771828878067061</v>
+        <v>0.5185042650555166</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1594,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.048222000000001</v>
+        <v>37.05201233333333</v>
       </c>
       <c r="H19">
-        <v>24.144666</v>
+        <v>111.156037</v>
       </c>
       <c r="I19">
-        <v>0.09141501865831141</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="J19">
-        <v>0.09141501865831139</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7441686666666666</v>
+        <v>0.6027323333333333</v>
       </c>
       <c r="N19">
-        <v>2.232506</v>
+        <v>1.808197</v>
       </c>
       <c r="O19">
-        <v>0.01014028779063213</v>
+        <v>0.006636561394890218</v>
       </c>
       <c r="P19">
-        <v>0.01014028779063213</v>
+        <v>0.006636561394890218</v>
       </c>
       <c r="Q19">
-        <v>5.989234634777334</v>
+        <v>22.33244584836544</v>
       </c>
       <c r="R19">
-        <v>53.903111712996</v>
+        <v>200.992012635289</v>
       </c>
       <c r="S19">
-        <v>0.0009269745975812834</v>
+        <v>0.003783154158850978</v>
       </c>
       <c r="T19">
-        <v>0.0009269745975812833</v>
+        <v>0.003783154158850978</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>8.048222000000001</v>
+        <v>0.258594</v>
       </c>
       <c r="H20">
-        <v>24.144666</v>
+        <v>0.775782</v>
       </c>
       <c r="I20">
-        <v>0.09141501865831141</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="J20">
-        <v>0.09141501865831139</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>68.90343433333334</v>
+        <v>0.1695033333333333</v>
       </c>
       <c r="N20">
-        <v>206.710303</v>
+        <v>0.50851</v>
       </c>
       <c r="O20">
-        <v>0.938900930930877</v>
+        <v>0.001866366239361986</v>
       </c>
       <c r="P20">
-        <v>0.9389009309308769</v>
+        <v>0.001866366239361986</v>
       </c>
       <c r="Q20">
-        <v>554.5501360770887</v>
+        <v>0.04383254498</v>
       </c>
       <c r="R20">
-        <v>4990.951224693798</v>
+        <v>0.39449290482</v>
       </c>
       <c r="S20">
-        <v>0.08582964611935207</v>
+        <v>7.425307373856082E-06</v>
       </c>
       <c r="T20">
-        <v>0.08582964611935205</v>
+        <v>7.425307373856082E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>8.048222000000001</v>
+        <v>0.258594</v>
       </c>
       <c r="H21">
-        <v>24.144666</v>
+        <v>0.775782</v>
       </c>
       <c r="I21">
-        <v>0.09141501865831141</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="J21">
-        <v>0.09141501865831139</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,60 +1739,60 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.364763</v>
+        <v>0.1497613333333333</v>
       </c>
       <c r="N21">
-        <v>4.094289</v>
+        <v>0.449284</v>
       </c>
       <c r="O21">
-        <v>0.01859671094188299</v>
+        <v>0.001648991149604748</v>
       </c>
       <c r="P21">
-        <v>0.01859671094188299</v>
+        <v>0.001648991149604748</v>
       </c>
       <c r="Q21">
-        <v>10.983915601386</v>
+        <v>0.038727382232</v>
       </c>
       <c r="R21">
-        <v>98.855240412474</v>
+        <v>0.348546440088</v>
       </c>
       <c r="S21">
-        <v>0.001700018677735458</v>
+        <v>6.560484155976394E-06</v>
       </c>
       <c r="T21">
-        <v>0.001700018677735457</v>
+        <v>6.560484155976394E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>33.64714066666667</v>
+        <v>0.258594</v>
       </c>
       <c r="H22">
-        <v>100.941422</v>
+        <v>0.775782</v>
       </c>
       <c r="I22">
-        <v>0.3821780750881575</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="J22">
-        <v>0.3821780750881575</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,60 +1801,60 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1497613333333333</v>
+        <v>5.274881666666666</v>
       </c>
       <c r="N22">
-        <v>0.449284</v>
+        <v>15.824645</v>
       </c>
       <c r="O22">
-        <v>0.002040697341788271</v>
+        <v>0.05808063396568101</v>
       </c>
       <c r="P22">
-        <v>0.002040697341788271</v>
+        <v>0.05808063396568101</v>
       </c>
       <c r="Q22">
-        <v>5.039040649094222</v>
+        <v>1.36405274971</v>
       </c>
       <c r="R22">
-        <v>45.35136584184799</v>
+        <v>12.27647474739</v>
       </c>
       <c r="S22">
-        <v>0.0007799097819221612</v>
+        <v>0.0002310728465657603</v>
       </c>
       <c r="T22">
-        <v>0.0007799097819221612</v>
+        <v>0.0002310728465657603</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>33.64714066666667</v>
+        <v>0.258594</v>
       </c>
       <c r="H23">
-        <v>100.941422</v>
+        <v>0.775782</v>
       </c>
       <c r="I23">
-        <v>0.3821780750881575</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="J23">
-        <v>0.3821780750881575</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,122 +1863,122 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.225204666666667</v>
+        <v>2.014966666666667</v>
       </c>
       <c r="N23">
-        <v>6.675614</v>
+        <v>6.0449</v>
       </c>
       <c r="O23">
-        <v>0.03032137299481969</v>
+        <v>0.02218638233332534</v>
       </c>
       <c r="P23">
-        <v>0.03032137299481969</v>
+        <v>0.02218638233332534</v>
       </c>
       <c r="Q23">
-        <v>74.87177443145644</v>
+        <v>0.5210582901999999</v>
       </c>
       <c r="R23">
-        <v>673.845969883108</v>
+        <v>4.6895246118</v>
       </c>
       <c r="S23">
-        <v>0.01158816396519023</v>
+        <v>8.826815705536297E-05</v>
       </c>
       <c r="T23">
-        <v>0.01158816396519023</v>
+        <v>8.826815705536298E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>33.64714066666667</v>
+        <v>0.258594</v>
       </c>
       <c r="H24">
-        <v>100.941422</v>
+        <v>0.775782</v>
       </c>
       <c r="I24">
-        <v>0.3821780750881575</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="J24">
-        <v>0.3821780750881575</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7441686666666666</v>
+        <v>82.60812866666667</v>
       </c>
       <c r="N24">
-        <v>2.232506</v>
+        <v>247.824386</v>
       </c>
       <c r="O24">
-        <v>0.01014028779063213</v>
+        <v>0.9095810649171368</v>
       </c>
       <c r="P24">
-        <v>0.01014028779063213</v>
+        <v>0.9095810649171366</v>
       </c>
       <c r="Q24">
-        <v>25.03914780705911</v>
+        <v>21.361966424428</v>
       </c>
       <c r="R24">
-        <v>225.352330263532</v>
+        <v>192.257697819852</v>
       </c>
       <c r="S24">
-        <v>0.003875395668663732</v>
+        <v>0.003618753300401479</v>
       </c>
       <c r="T24">
-        <v>0.003875395668663732</v>
+        <v>0.003618753300401479</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>33.64714066666667</v>
+        <v>0.258594</v>
       </c>
       <c r="H25">
-        <v>100.941422</v>
+        <v>0.775782</v>
       </c>
       <c r="I25">
-        <v>0.3821780750881575</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="J25">
-        <v>0.3821780750881575</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.90343433333334</v>
+        <v>0.6027323333333333</v>
       </c>
       <c r="N25">
-        <v>206.710303</v>
+        <v>1.808197</v>
       </c>
       <c r="O25">
-        <v>0.938900930930877</v>
+        <v>0.006636561394890218</v>
       </c>
       <c r="P25">
-        <v>0.9389009309308769</v>
+        <v>0.006636561394890218</v>
       </c>
       <c r="Q25">
-        <v>2318.403547430096</v>
+        <v>0.155862965006</v>
       </c>
       <c r="R25">
-        <v>20865.63192687086</v>
+        <v>1.402766685054</v>
       </c>
       <c r="S25">
-        <v>0.3588273504816417</v>
+        <v>2.64034503106811E-05</v>
       </c>
       <c r="T25">
-        <v>0.3588273504816417</v>
+        <v>2.64034503106811E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2013,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.976870333333333</v>
+      </c>
+      <c r="H26">
+        <v>23.930611</v>
+      </c>
+      <c r="I26">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="J26">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1695033333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.50851</v>
+      </c>
+      <c r="O26">
+        <v>0.001866366239361986</v>
+      </c>
+      <c r="P26">
+        <v>0.001866366239361986</v>
+      </c>
+      <c r="Q26">
+        <v>1.352106111067778</v>
+      </c>
+      <c r="R26">
+        <v>12.16895499961</v>
+      </c>
+      <c r="S26">
+        <v>0.0002290490657416406</v>
+      </c>
+      <c r="T26">
+        <v>0.0002290490657416406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.976870333333333</v>
+      </c>
+      <c r="H27">
+        <v>23.930611</v>
+      </c>
+      <c r="I27">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="J27">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1497613333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.449284</v>
+      </c>
+      <c r="O27">
+        <v>0.001648991149604748</v>
+      </c>
+      <c r="P27">
+        <v>0.001648991149604748</v>
+      </c>
+      <c r="Q27">
+        <v>1.194626736947111</v>
+      </c>
+      <c r="R27">
+        <v>10.751640632524</v>
+      </c>
+      <c r="S27">
+        <v>0.0002023717929886674</v>
+      </c>
+      <c r="T27">
+        <v>0.0002023717929886674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.976870333333333</v>
+      </c>
+      <c r="H28">
+        <v>23.930611</v>
+      </c>
+      <c r="I28">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="J28">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.274881666666666</v>
+      </c>
+      <c r="N28">
+        <v>15.824645</v>
+      </c>
+      <c r="O28">
+        <v>0.05808063396568101</v>
+      </c>
+      <c r="P28">
+        <v>0.05808063396568101</v>
+      </c>
+      <c r="Q28">
+        <v>42.07704707867722</v>
+      </c>
+      <c r="R28">
+        <v>378.693423708095</v>
+      </c>
+      <c r="S28">
+        <v>0.007127923055481947</v>
+      </c>
+      <c r="T28">
+        <v>0.007127923055481947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.976870333333333</v>
+      </c>
+      <c r="H29">
+        <v>23.930611</v>
+      </c>
+      <c r="I29">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="J29">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.014966666666667</v>
+      </c>
+      <c r="N29">
+        <v>6.0449</v>
+      </c>
+      <c r="O29">
+        <v>0.02218638233332534</v>
+      </c>
+      <c r="P29">
+        <v>0.02218638233332534</v>
+      </c>
+      <c r="Q29">
+        <v>16.07312782598889</v>
+      </c>
+      <c r="R29">
+        <v>144.6581504339</v>
+      </c>
+      <c r="S29">
+        <v>0.002722815082302498</v>
+      </c>
+      <c r="T29">
+        <v>0.002722815082302499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.976870333333333</v>
+      </c>
+      <c r="H30">
+        <v>23.930611</v>
+      </c>
+      <c r="I30">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="J30">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>82.60812866666667</v>
+      </c>
+      <c r="N30">
+        <v>247.824386</v>
+      </c>
+      <c r="O30">
+        <v>0.9095810649171368</v>
+      </c>
+      <c r="P30">
+        <v>0.9095810649171366</v>
+      </c>
+      <c r="Q30">
+        <v>658.9543308533163</v>
+      </c>
+      <c r="R30">
+        <v>5930.588977679846</v>
+      </c>
+      <c r="S30">
+        <v>0.1116279799439455</v>
+      </c>
+      <c r="T30">
+        <v>0.1116279799439455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.976870333333333</v>
+      </c>
+      <c r="H31">
+        <v>23.930611</v>
+      </c>
+      <c r="I31">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="J31">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.6027323333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.808197</v>
+      </c>
+      <c r="O31">
+        <v>0.006636561394890218</v>
+      </c>
+      <c r="P31">
+        <v>0.006636561394890218</v>
+      </c>
+      <c r="Q31">
+        <v>4.807917668707444</v>
+      </c>
+      <c r="R31">
+        <v>43.271259018367</v>
+      </c>
+      <c r="S31">
+        <v>0.000814469397901393</v>
+      </c>
+      <c r="T31">
+        <v>0.000814469397901393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>11.556398</v>
+      </c>
+      <c r="H32">
+        <v>34.669194</v>
+      </c>
+      <c r="I32">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="J32">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.1695033333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.50851</v>
+      </c>
+      <c r="O32">
+        <v>0.001866366239361986</v>
+      </c>
+      <c r="P32">
+        <v>0.001866366239361986</v>
+      </c>
+      <c r="Q32">
+        <v>1.958847982326667</v>
+      </c>
+      <c r="R32">
+        <v>17.62963184094</v>
+      </c>
+      <c r="S32">
+        <v>0.000331832166580105</v>
+      </c>
+      <c r="T32">
+        <v>0.000331832166580105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>11.556398</v>
+      </c>
+      <c r="H33">
+        <v>34.669194</v>
+      </c>
+      <c r="I33">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="J33">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.1497613333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.449284</v>
+      </c>
+      <c r="O33">
+        <v>0.001648991149604748</v>
+      </c>
+      <c r="P33">
+        <v>0.001648991149604748</v>
+      </c>
+      <c r="Q33">
+        <v>1.730701573010667</v>
+      </c>
+      <c r="R33">
+        <v>15.576314157096</v>
+      </c>
+      <c r="S33">
+        <v>0.0002931837783520007</v>
+      </c>
+      <c r="T33">
+        <v>0.0002931837783520007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>11.556398</v>
+      </c>
+      <c r="H34">
+        <v>34.669194</v>
+      </c>
+      <c r="I34">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="J34">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.274881666666666</v>
+      </c>
+      <c r="N34">
+        <v>15.824645</v>
+      </c>
+      <c r="O34">
+        <v>0.05808063396568101</v>
+      </c>
+      <c r="P34">
+        <v>0.05808063396568101</v>
+      </c>
+      <c r="Q34">
+        <v>60.95863194290333</v>
+      </c>
+      <c r="R34">
+        <v>548.62768748613</v>
+      </c>
+      <c r="S34">
+        <v>0.01032649551771062</v>
+      </c>
+      <c r="T34">
+        <v>0.01032649551771062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>11.556398</v>
+      </c>
+      <c r="H35">
+        <v>34.669194</v>
+      </c>
+      <c r="I35">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="J35">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.014966666666667</v>
+      </c>
+      <c r="N35">
+        <v>6.0449</v>
+      </c>
+      <c r="O35">
+        <v>0.02218638233332534</v>
+      </c>
+      <c r="P35">
+        <v>0.02218638233332534</v>
+      </c>
+      <c r="Q35">
+        <v>23.28575675673333</v>
+      </c>
+      <c r="R35">
+        <v>209.5718108106</v>
+      </c>
+      <c r="S35">
+        <v>0.00394464664167878</v>
+      </c>
+      <c r="T35">
+        <v>0.003944646641678781</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>33.64714066666667</v>
-      </c>
-      <c r="H26">
-        <v>100.941422</v>
-      </c>
-      <c r="I26">
-        <v>0.3821780750881575</v>
-      </c>
-      <c r="J26">
-        <v>0.3821780750881575</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.364763</v>
-      </c>
-      <c r="N26">
-        <v>4.094289</v>
-      </c>
-      <c r="O26">
-        <v>0.01859671094188299</v>
-      </c>
-      <c r="P26">
-        <v>0.01859671094188299</v>
-      </c>
-      <c r="Q26">
-        <v>45.920372637662</v>
-      </c>
-      <c r="R26">
-        <v>413.2833537389579</v>
-      </c>
-      <c r="S26">
-        <v>0.007107255190739719</v>
-      </c>
-      <c r="T26">
-        <v>0.007107255190739717</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>11.556398</v>
+      </c>
+      <c r="H36">
+        <v>34.669194</v>
+      </c>
+      <c r="I36">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="J36">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>82.60812866666667</v>
+      </c>
+      <c r="N36">
+        <v>247.824386</v>
+      </c>
+      <c r="O36">
+        <v>0.9095810649171368</v>
+      </c>
+      <c r="P36">
+        <v>0.9095810649171366</v>
+      </c>
+      <c r="Q36">
+        <v>954.6524129072094</v>
+      </c>
+      <c r="R36">
+        <v>8591.871716164884</v>
+      </c>
+      <c r="S36">
+        <v>0.1617197359693305</v>
+      </c>
+      <c r="T36">
+        <v>0.1617197359693305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>11.556398</v>
+      </c>
+      <c r="H37">
+        <v>34.669194</v>
+      </c>
+      <c r="I37">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="J37">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.6027323333333333</v>
+      </c>
+      <c r="N37">
+        <v>1.808197</v>
+      </c>
+      <c r="O37">
+        <v>0.006636561394890218</v>
+      </c>
+      <c r="P37">
+        <v>0.006636561394890218</v>
+      </c>
+      <c r="Q37">
+        <v>6.965414731468666</v>
+      </c>
+      <c r="R37">
+        <v>62.688732583218</v>
+      </c>
+      <c r="S37">
+        <v>0.001179953055227323</v>
+      </c>
+      <c r="T37">
+        <v>0.001179953055227323</v>
       </c>
     </row>
   </sheetData>
